--- a/Docs/Reportes/Parametros_enlaces.xlsx
+++ b/Docs/Reportes/Parametros_enlaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madera\Documents\MATLAB\sistemas_comunica_dig\Tareas_Com_Dig\Docs\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C440C1-9B82-4630-878D-74F1B916AF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B23CE-1276-4F7E-AED8-DC4E357418CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{551DDFE3-C729-4A16-8355-ECA327179363}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{551DDFE3-C729-4A16-8355-ECA327179363}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>FM</t>
   </si>
@@ -137,13 +137,16 @@
   </si>
   <si>
     <t>4.6 to 7.9 dB </t>
+  </si>
+  <si>
+    <t>FORMULARIO DE HATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +178,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -192,24 +211,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,158 +764,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6222B9B-F202-43E8-A0FE-6928A67AF953}">
-  <dimension ref="B2:J12"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>88</v>
+      </c>
+      <c r="D4" s="6">
+        <v>108</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>88</v>
-      </c>
-      <c r="D4">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J6" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Docs/Reportes/Parametros_enlaces.xlsx
+++ b/Docs/Reportes/Parametros_enlaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madera\Documents\MATLAB\sistemas_comunica_dig\Tareas_Com_Dig\Docs\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B23CE-1276-4F7E-AED8-DC4E357418CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A2BA95-CCB1-4060-8844-EAE1797C5C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{551DDFE3-C729-4A16-8355-ECA327179363}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{551DDFE3-C729-4A16-8355-ECA327179363}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>FM</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>FORMULARIO DE HATA</t>
+  </si>
+  <si>
+    <t>1150Khz</t>
+  </si>
+  <si>
+    <t>50000Kw</t>
+  </si>
+  <si>
+    <t>880khz</t>
+  </si>
+  <si>
+    <t>10000kw</t>
   </si>
 </sst>
 </file>
@@ -387,12 +399,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,6 +435,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,13 +456,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -767,7 +779,7 @@
   <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,166 +789,174 @@
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" customWidth="1"/>
+    <col min="9" max="9" width="58.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="3"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>88</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>108</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="K9" t="s">
@@ -944,54 +964,54 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
